--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_16_22.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_16_22.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>946817.315146708</v>
+        <v>944116.098495251</v>
       </c>
     </row>
     <row r="7">
@@ -656,16 +656,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>263.7138800015062</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>263.7138800015062</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>212.5689651179051</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
@@ -674,7 +674,7 @@
         <v>12.83417464571001</v>
       </c>
       <c r="H2" t="n">
-        <v>263.7138800015062</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -707,16 +707,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>72.36698404190653</v>
       </c>
     </row>
     <row r="3">
@@ -735,25 +735,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>16.66197659284158</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>136.0227195864234</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>99.47932027120974</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -783,28 +783,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>18.15252495527768</v>
       </c>
       <c r="S3" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>64.16245456577046</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>225.8544875035546</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -823,13 +823,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -862,25 +862,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>127.5046028836639</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>49.43353001081903</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>77.75392192072599</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -896,25 +896,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>316.5565966897781</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>383.6877278154314</v>
       </c>
       <c r="G5" t="n">
         <v>12.41899097776993</v>
       </c>
       <c r="H5" t="n">
-        <v>309.9416328899766</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>99.30025118863698</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>143.3066953660375</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1149531848473</v>
       </c>
       <c r="V5" t="n">
-        <v>307.0595848141284</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>383.6877278154306</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -975,13 +975,13 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>73.62876193764139</v>
+        <v>95.77682125736946</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -990,10 +990,10 @@
         <v>135.8005767399402</v>
       </c>
       <c r="H6" t="n">
-        <v>97.33388804333228</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>36.27346476951735</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,16 +1020,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>4.360182258713891</v>
+        <v>4.360182258713806</v>
       </c>
       <c r="S6" t="n">
-        <v>143.0237294698459</v>
+        <v>143.0237294698458</v>
       </c>
       <c r="T6" t="n">
         <v>193.9455960238326</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8398728426018</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1038,7 +1038,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1051,31 +1051,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>87.60336766488687</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>150.7263422083602</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>116.5499160015377</v>
       </c>
       <c r="J7" t="n">
-        <v>1.905236112643607</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1099,16 +1099,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>119.1307056315184</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>201.4735595059546</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>222.4186055422208</v>
       </c>
       <c r="U7" t="n">
-        <v>181.3204194640851</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1117,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>411.547702772954</v>
+        <v>117.523540462315</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,19 +1184,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>236.6333082512377</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1288,28 +1288,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>128.3203180203718</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,25 +1339,25 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>245.5761046894312</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1373,22 +1373,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>211.2545921594948</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>304.0065125199809</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>410.4696069132659</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>289.9775033393748</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>24.1466220418456</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>98.88510599615203</v>
+        <v>98.88510599615213</v>
       </c>
       <c r="T11" t="n">
-        <v>201.9388203544491</v>
+        <v>201.9388203544492</v>
       </c>
       <c r="U11" t="n">
         <v>250.959002459687</v>
@@ -1464,10 +1464,10 @@
         <v>134.757564313352</v>
       </c>
       <c r="H12" t="n">
-        <v>87.2605838181255</v>
+        <v>87.26058381812551</v>
       </c>
       <c r="I12" t="n">
-        <v>10.48847705530784</v>
+        <v>10.48847705530792</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,25 +1525,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.8230033569236</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>142.9518949665179</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>79.28877555628016</v>
+        <v>79.81330679905241</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>186.2346889920369</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>218.682419239904</v>
       </c>
       <c r="U13" t="n">
         <v>286.2007761200435</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>17.53779970793234</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187856</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1701,7 +1701,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1762,16 +1762,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>121.8000472740385</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>148.6154730182088</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1780,10 +1780,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1822,7 +1822,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>84.90358457993499</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576143</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -1938,7 +1938,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2008,16 +2008,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>145.4210480229327</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>121.8000472740283</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2056,7 +2056,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892502</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>193.9507379795585</v>
       </c>
     </row>
     <row r="20">
@@ -2239,25 +2239,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503965</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>1.79977260571647</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2290,7 +2290,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.405450327288</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2476,10 +2476,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>128.3548363691459</v>
+        <v>123.9815576456779</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -2488,7 +2488,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2533,7 +2533,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2716,22 +2716,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2770,13 +2770,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>185.4048731212357</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2807,7 +2807,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444135</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2953,22 +2953,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>102.1557845699814</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>59.66990246485226</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3013,7 +3013,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3083,7 +3083,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881295</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3190,10 +3190,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>1.799772605716393</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3202,10 +3202,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>112.5284434523307</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3323,13 +3323,13 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470134</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3421,25 +3421,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>3.006892987833216</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3484,10 +3484,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>194.3650462979105</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3518,7 +3518,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444128</v>
+        <v>283.1540821444127</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3670,16 +3670,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>99.97427419833835</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3718,13 +3718,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>210.8399757234823</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634798</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3806,7 +3806,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560522</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3898,7 +3898,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -3907,7 +3907,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3916,7 +3916,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,10 +3943,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -3964,7 +3964,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>192.8396132741335</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4135,10 +4135,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>123.981557645678</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -4150,7 +4150,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4198,7 +4198,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>140.9357387834172</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4304,46 +4304,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>788.4778634388467</v>
+        <v>307.3840804899464</v>
       </c>
       <c r="C2" t="n">
-        <v>522.1002068716687</v>
+        <v>307.3840804899464</v>
       </c>
       <c r="D2" t="n">
         <v>307.3840804899464</v>
       </c>
       <c r="E2" t="n">
-        <v>307.3840804899464</v>
+        <v>41.00642392276842</v>
       </c>
       <c r="F2" t="n">
-        <v>300.4385797407429</v>
+        <v>34.06092317356495</v>
       </c>
       <c r="G2" t="n">
-        <v>287.4747669672985</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H2" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I2" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917556</v>
+        <v>49.28269087917579</v>
       </c>
       <c r="K2" t="n">
         <v>142.264087905254</v>
       </c>
       <c r="L2" t="n">
-        <v>294.5174947515906</v>
+        <v>294.5174947515905</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030605</v>
+        <v>495.5981834030603</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991317</v>
+        <v>704.5463761991316</v>
       </c>
       <c r="O2" t="n">
-        <v>888.5149683358416</v>
+        <v>888.5149683358413</v>
       </c>
       <c r="P2" t="n">
         <v>1011.026904601763</v>
@@ -4355,25 +4355,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S2" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="T2" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="U2" t="n">
-        <v>1054.855520006025</v>
+        <v>646.8597007358178</v>
       </c>
       <c r="V2" t="n">
-        <v>1054.855520006025</v>
+        <v>380.4820441686398</v>
       </c>
       <c r="W2" t="n">
-        <v>1054.855520006025</v>
+        <v>380.4820441686398</v>
       </c>
       <c r="X2" t="n">
-        <v>1054.855520006025</v>
+        <v>380.4820441686398</v>
       </c>
       <c r="Y2" t="n">
-        <v>1054.855520006025</v>
+        <v>307.3840804899464</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>405.5125167142792</v>
+        <v>197.1648447922847</v>
       </c>
       <c r="C3" t="n">
-        <v>405.5125167142792</v>
+        <v>180.334565405576</v>
       </c>
       <c r="D3" t="n">
-        <v>405.5125167142792</v>
+        <v>180.334565405576</v>
       </c>
       <c r="E3" t="n">
-        <v>405.5125167142792</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F3" t="n">
-        <v>258.9779587411641</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G3" t="n">
-        <v>121.5812722902314</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H3" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I3" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J3" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K3" t="n">
-        <v>192.1295835699344</v>
+        <v>95.78113116957465</v>
       </c>
       <c r="L3" t="n">
-        <v>338.8740072302311</v>
+        <v>242.5255548298713</v>
       </c>
       <c r="M3" t="n">
-        <v>529.474696326755</v>
+        <v>433.1262439263951</v>
       </c>
       <c r="N3" t="n">
-        <v>739.52866342936</v>
+        <v>643.1802110290001</v>
       </c>
       <c r="O3" t="n">
-        <v>909.4672107560898</v>
+        <v>813.1187583557299</v>
       </c>
       <c r="P3" t="n">
-        <v>1026.524810789493</v>
+        <v>930.1763583891335</v>
       </c>
       <c r="Q3" t="n">
         <v>1054.855520006025</v>
       </c>
       <c r="R3" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="S3" t="n">
-        <v>906.2192216098645</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="T3" t="n">
-        <v>841.4086614424195</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="U3" t="n">
-        <v>613.272815479233</v>
+        <v>808.3837902496282</v>
       </c>
       <c r="V3" t="n">
-        <v>613.272815479233</v>
+        <v>573.2316820178855</v>
       </c>
       <c r="W3" t="n">
-        <v>613.272815479233</v>
+        <v>573.2316820178855</v>
       </c>
       <c r="X3" t="n">
-        <v>613.272815479233</v>
+        <v>365.3801818123527</v>
       </c>
       <c r="Y3" t="n">
-        <v>405.5125167142792</v>
+        <v>365.3801818123527</v>
       </c>
     </row>
     <row r="4">
@@ -4462,46 +4462,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>167.9870578980309</v>
+        <v>484.4695121254205</v>
       </c>
       <c r="C4" t="n">
-        <v>167.9870578980309</v>
+        <v>484.4695121254205</v>
       </c>
       <c r="D4" t="n">
-        <v>167.9870578980309</v>
+        <v>484.4695121254205</v>
       </c>
       <c r="E4" t="n">
-        <v>167.9870578980309</v>
+        <v>336.5564185430274</v>
       </c>
       <c r="F4" t="n">
-        <v>21.0971104001205</v>
+        <v>189.666471045117</v>
       </c>
       <c r="G4" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H4" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I4" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J4" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K4" t="n">
-        <v>126.4133765287949</v>
+        <v>126.4133765287947</v>
       </c>
       <c r="L4" t="n">
-        <v>316.7083726551011</v>
+        <v>316.7083726551009</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375338</v>
+        <v>527.7368878375337</v>
       </c>
       <c r="N4" t="n">
-        <v>739.1822330227047</v>
+        <v>739.1822330227046</v>
       </c>
       <c r="O4" t="n">
-        <v>918.4699372075544</v>
+        <v>918.4699372075543</v>
       </c>
       <c r="P4" t="n">
         <v>1048.360858816803</v>
@@ -4510,28 +4510,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R4" t="n">
-        <v>926.0629918407077</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S4" t="n">
-        <v>876.1301332439208</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T4" t="n">
-        <v>650.6610970019351</v>
+        <v>829.3864837640389</v>
       </c>
       <c r="U4" t="n">
-        <v>650.6610970019351</v>
+        <v>563.0088271968609</v>
       </c>
       <c r="V4" t="n">
-        <v>395.9766087960482</v>
+        <v>563.0088271968609</v>
       </c>
       <c r="W4" t="n">
-        <v>395.9766087960482</v>
+        <v>484.4695121254205</v>
       </c>
       <c r="X4" t="n">
-        <v>167.9870578980309</v>
+        <v>484.4695121254205</v>
       </c>
       <c r="Y4" t="n">
-        <v>167.9870578980309</v>
+        <v>484.4695121254205</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>463.5605947889667</v>
+        <v>1136.345205654771</v>
       </c>
       <c r="C5" t="n">
-        <v>463.5605947889667</v>
+        <v>816.5910675842882</v>
       </c>
       <c r="D5" t="n">
-        <v>463.5605947889667</v>
+        <v>816.5910675842882</v>
       </c>
       <c r="E5" t="n">
-        <v>463.5605947889667</v>
+        <v>430.802814986044</v>
       </c>
       <c r="F5" t="n">
-        <v>456.6150940397633</v>
+        <v>43.23945355631525</v>
       </c>
       <c r="G5" t="n">
-        <v>444.0706587086825</v>
+        <v>30.69501822523451</v>
       </c>
       <c r="H5" t="n">
-        <v>130.9983022541607</v>
+        <v>30.69501822523451</v>
       </c>
       <c r="I5" t="n">
-        <v>30.69501822523445</v>
+        <v>30.69501822523451</v>
       </c>
       <c r="J5" t="n">
-        <v>93.76641159275118</v>
+        <v>93.76641159275096</v>
       </c>
       <c r="K5" t="n">
-        <v>239.0325989245557</v>
+        <v>239.0325989245566</v>
       </c>
       <c r="L5" t="n">
-        <v>456.1499114825626</v>
+        <v>456.1499114825641</v>
       </c>
       <c r="M5" t="n">
-        <v>729.4041931748849</v>
+        <v>729.4041931748872</v>
       </c>
       <c r="N5" t="n">
-        <v>1011.693823202378</v>
+        <v>1011.693823202381</v>
       </c>
       <c r="O5" t="n">
-        <v>1264.916654798411</v>
+        <v>1264.916654798415</v>
       </c>
       <c r="P5" t="n">
-        <v>1446.535482189408</v>
+        <v>1446.535482189411</v>
       </c>
       <c r="Q5" t="n">
-        <v>1534.750911261722</v>
+        <v>1534.750911261726</v>
       </c>
       <c r="R5" t="n">
-        <v>1534.750911261722</v>
+        <v>1534.750911261726</v>
       </c>
       <c r="S5" t="n">
-        <v>1534.750911261722</v>
+        <v>1389.996673518253</v>
       </c>
       <c r="T5" t="n">
-        <v>1534.750911261722</v>
+        <v>1389.996673518253</v>
       </c>
       <c r="U5" t="n">
-        <v>1534.750911261722</v>
+        <v>1136.345205654771</v>
       </c>
       <c r="V5" t="n">
-        <v>1224.589714479775</v>
+        <v>1136.345205654771</v>
       </c>
       <c r="W5" t="n">
-        <v>1224.589714479775</v>
+        <v>1136.345205654771</v>
       </c>
       <c r="X5" t="n">
-        <v>851.1239562186947</v>
+        <v>1136.345205654771</v>
       </c>
       <c r="Y5" t="n">
-        <v>463.5605947889667</v>
+        <v>1136.345205654771</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>700.5841657438059</v>
+        <v>264.6115818588807</v>
       </c>
       <c r="C6" t="n">
-        <v>526.1311364626789</v>
+        <v>264.6115818588807</v>
       </c>
       <c r="D6" t="n">
-        <v>377.1967268014276</v>
+        <v>264.6115818588807</v>
       </c>
       <c r="E6" t="n">
-        <v>302.8242399957293</v>
+        <v>167.8673179625479</v>
       </c>
       <c r="F6" t="n">
-        <v>302.8242399957293</v>
+        <v>167.8673179625479</v>
       </c>
       <c r="G6" t="n">
-        <v>165.6519402584159</v>
+        <v>30.69501822523451</v>
       </c>
       <c r="H6" t="n">
-        <v>67.33488162878733</v>
+        <v>30.69501822523451</v>
       </c>
       <c r="I6" t="n">
-        <v>30.69501822523445</v>
+        <v>30.69501822523451</v>
       </c>
       <c r="J6" t="n">
-        <v>174.2721860626389</v>
+        <v>49.44206107563431</v>
       </c>
       <c r="K6" t="n">
-        <v>388.9600665101419</v>
+        <v>159.6385680169448</v>
       </c>
       <c r="L6" t="n">
-        <v>583.4554103414937</v>
+        <v>354.133911848297</v>
       </c>
       <c r="M6" t="n">
-        <v>829.7791710122394</v>
+        <v>600.4576725190431</v>
       </c>
       <c r="N6" t="n">
-        <v>1097.031033584462</v>
+        <v>889.0545187259733</v>
       </c>
       <c r="O6" t="n">
-        <v>1319.29448074998</v>
+        <v>1111.317965891492</v>
       </c>
       <c r="P6" t="n">
-        <v>1478.347425948668</v>
+        <v>1270.37091109018</v>
       </c>
       <c r="Q6" t="n">
-        <v>1534.750911261722</v>
+        <v>1534.750911261726</v>
       </c>
       <c r="R6" t="n">
-        <v>1530.346686757971</v>
+        <v>1530.346686757974</v>
       </c>
       <c r="S6" t="n">
-        <v>1385.878273152066</v>
+        <v>1385.878273152069</v>
       </c>
       <c r="T6" t="n">
-        <v>1189.97363070375</v>
+        <v>1189.973630703754</v>
       </c>
       <c r="U6" t="n">
-        <v>1189.97363070375</v>
+        <v>961.8525470243578</v>
       </c>
       <c r="V6" t="n">
-        <v>954.8215224720075</v>
+        <v>726.7004387926152</v>
       </c>
       <c r="W6" t="n">
-        <v>700.5841657438059</v>
+        <v>472.4630820644135</v>
       </c>
       <c r="X6" t="n">
-        <v>700.5841657438059</v>
+        <v>264.6115818588807</v>
       </c>
       <c r="Y6" t="n">
-        <v>700.5841657438059</v>
+        <v>264.6115818588807</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>648.6075536688022</v>
+        <v>236.9104562721281</v>
       </c>
       <c r="C7" t="n">
-        <v>479.6713707408953</v>
+        <v>148.4222061055757</v>
       </c>
       <c r="D7" t="n">
-        <v>479.6713707408953</v>
+        <v>148.4222061055757</v>
       </c>
       <c r="E7" t="n">
-        <v>331.7582771585022</v>
+        <v>148.4222061055757</v>
       </c>
       <c r="F7" t="n">
-        <v>184.8683296605918</v>
+        <v>148.4222061055757</v>
       </c>
       <c r="G7" t="n">
-        <v>184.8683296605918</v>
+        <v>148.4222061055757</v>
       </c>
       <c r="H7" t="n">
-        <v>32.61949914709668</v>
+        <v>148.4222061055757</v>
       </c>
       <c r="I7" t="n">
-        <v>32.61949914709668</v>
+        <v>30.69501822523451</v>
       </c>
       <c r="J7" t="n">
-        <v>30.69501822523445</v>
+        <v>30.69501822523451</v>
       </c>
       <c r="K7" t="n">
-        <v>157.4322756223266</v>
+        <v>157.4322756223268</v>
       </c>
       <c r="L7" t="n">
-        <v>375.1387655830387</v>
+        <v>375.1387655830391</v>
       </c>
       <c r="M7" t="n">
-        <v>615.068857638815</v>
+        <v>615.0688576388155</v>
       </c>
       <c r="N7" t="n">
-        <v>854.728564797482</v>
+        <v>854.7285647974828</v>
       </c>
       <c r="O7" t="n">
-        <v>1060.076798891671</v>
+        <v>1060.076798891672</v>
       </c>
       <c r="P7" t="n">
-        <v>1212.267005934021</v>
+        <v>1212.267005934022</v>
       </c>
       <c r="Q7" t="n">
-        <v>1234.200536495183</v>
+        <v>1234.200536495184</v>
       </c>
       <c r="R7" t="n">
-        <v>1234.200536495183</v>
+        <v>1113.866490402742</v>
       </c>
       <c r="S7" t="n">
-        <v>1234.200536495183</v>
+        <v>910.3578444371309</v>
       </c>
       <c r="T7" t="n">
-        <v>1234.200536495183</v>
+        <v>685.6925863136755</v>
       </c>
       <c r="U7" t="n">
-        <v>1051.048597642572</v>
+        <v>685.6925863136755</v>
       </c>
       <c r="V7" t="n">
-        <v>1051.048597642572</v>
+        <v>685.6925863136755</v>
       </c>
       <c r="W7" t="n">
-        <v>1051.048597642572</v>
+        <v>685.6925863136755</v>
       </c>
       <c r="X7" t="n">
-        <v>1051.048597642572</v>
+        <v>457.7030354156582</v>
       </c>
       <c r="Y7" t="n">
-        <v>830.2560184990419</v>
+        <v>236.9104562721281</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1228.647807131574</v>
+        <v>970.5047989601117</v>
       </c>
       <c r="C8" t="n">
-        <v>859.685290191162</v>
+        <v>601.5422820197</v>
       </c>
       <c r="D8" t="n">
-        <v>859.685290191162</v>
+        <v>243.2765834129495</v>
       </c>
       <c r="E8" t="n">
-        <v>473.8970375929177</v>
+        <v>243.2765834129495</v>
       </c>
       <c r="F8" t="n">
-        <v>466.9515368437143</v>
+        <v>236.331082663746</v>
       </c>
       <c r="G8" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H8" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
         <v>51.2467865680031</v>
@@ -4832,22 +4832,22 @@
         <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400155</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U8" t="n">
-        <v>2323.315784712036</v>
+        <v>2100.012626270159</v>
       </c>
       <c r="V8" t="n">
-        <v>1992.252897368465</v>
+        <v>2100.012626270159</v>
       </c>
       <c r="W8" t="n">
-        <v>1992.252897368465</v>
+        <v>1747.243971000045</v>
       </c>
       <c r="X8" t="n">
-        <v>1618.787139107385</v>
+        <v>1747.243971000045</v>
       </c>
       <c r="Y8" t="n">
-        <v>1228.647807131574</v>
+        <v>1357.104639024233</v>
       </c>
     </row>
     <row r="9">
@@ -4884,22 +4884,22 @@
         <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>423.148951518066</v>
+        <v>684.9695361605188</v>
       </c>
       <c r="L9" t="n">
-        <v>717.8525085495377</v>
+        <v>979.6730931919905</v>
       </c>
       <c r="M9" t="n">
-        <v>1081.114527508758</v>
+        <v>1342.93511215121</v>
       </c>
       <c r="N9" t="n">
-        <v>1468.399656105703</v>
+        <v>1730.220240748155</v>
       </c>
       <c r="O9" t="n">
-        <v>1800.470091281865</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P9" t="n">
-        <v>2362.930966067699</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.339328400155</v>
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>768.6303371471284</v>
+        <v>498.0154176992257</v>
       </c>
       <c r="C10" t="n">
-        <v>768.6303371471284</v>
+        <v>498.0154176992257</v>
       </c>
       <c r="D10" t="n">
-        <v>768.6303371471284</v>
+        <v>347.89877828689</v>
       </c>
       <c r="E10" t="n">
-        <v>620.7172435647353</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="F10" t="n">
-        <v>473.8272960668249</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="G10" t="n">
-        <v>305.8408313751036</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H10" t="n">
-        <v>157.1019332386098</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I10" t="n">
         <v>51.2467865680031</v>
@@ -4987,25 +4987,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074497</v>
+        <v>1439.817372234358</v>
       </c>
       <c r="T10" t="n">
-        <v>1636.446120074497</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U10" t="n">
-        <v>1636.446120074497</v>
+        <v>927.7205539329314</v>
       </c>
       <c r="V10" t="n">
-        <v>1636.446120074497</v>
+        <v>679.6638825294655</v>
       </c>
       <c r="W10" t="n">
-        <v>1347.028950037536</v>
+        <v>679.6638825294655</v>
       </c>
       <c r="X10" t="n">
-        <v>1119.039399139519</v>
+        <v>679.6638825294655</v>
       </c>
       <c r="Y10" t="n">
-        <v>898.2468199959889</v>
+        <v>679.6638825294655</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1485.490329133577</v>
+        <v>1485.490329133572</v>
       </c>
       <c r="C11" t="n">
-        <v>1116.527812193165</v>
+        <v>1116.52781219316</v>
       </c>
       <c r="D11" t="n">
-        <v>903.1393352643829</v>
+        <v>1116.52781219316</v>
       </c>
       <c r="E11" t="n">
-        <v>903.1393352643829</v>
+        <v>809.4505268194423</v>
       </c>
       <c r="F11" t="n">
-        <v>492.1534304747753</v>
+        <v>809.4505268194423</v>
       </c>
       <c r="G11" t="n">
-        <v>77.53766591592083</v>
+        <v>394.8347622605878</v>
       </c>
       <c r="H11" t="n">
-        <v>77.53766591592083</v>
+        <v>101.9281932309163</v>
       </c>
       <c r="I11" t="n">
-        <v>77.53766591592083</v>
+        <v>77.53766591592073</v>
       </c>
       <c r="J11" t="n">
-        <v>304.4060796706895</v>
+        <v>304.4060796706899</v>
       </c>
       <c r="K11" t="n">
-        <v>695.1615405656971</v>
+        <v>695.1615405656976</v>
       </c>
       <c r="L11" t="n">
         <v>1216.830004625331</v>
       </c>
       <c r="M11" t="n">
-        <v>1828.956123087833</v>
+        <v>1828.956123087832</v>
       </c>
       <c r="N11" t="n">
-        <v>2455.600890484045</v>
+        <v>2455.600890484044</v>
       </c>
       <c r="O11" t="n">
-        <v>3033.988513535299</v>
+        <v>3033.988513535297</v>
       </c>
       <c r="P11" t="n">
-        <v>3493.127967479998</v>
+        <v>3493.127967479996</v>
       </c>
       <c r="Q11" t="n">
-        <v>3789.749829464065</v>
+        <v>3789.749829464061</v>
       </c>
       <c r="R11" t="n">
-        <v>3876.883295796041</v>
+        <v>3876.883295796036</v>
       </c>
       <c r="S11" t="n">
-        <v>3776.999350345382</v>
+        <v>3776.999350345377</v>
       </c>
       <c r="T11" t="n">
-        <v>3573.020743926747</v>
+        <v>3573.020743926742</v>
       </c>
       <c r="U11" t="n">
-        <v>3319.526802048275</v>
+        <v>3319.52680204827</v>
       </c>
       <c r="V11" t="n">
-        <v>2988.463914704705</v>
+        <v>2988.463914704699</v>
       </c>
       <c r="W11" t="n">
-        <v>2635.69525943459</v>
+        <v>2635.695259434585</v>
       </c>
       <c r="X11" t="n">
-        <v>2262.22950117351</v>
+        <v>2262.229501173505</v>
       </c>
       <c r="Y11" t="n">
-        <v>1872.090169197699</v>
+        <v>1872.090169197693</v>
       </c>
     </row>
     <row r="12">
@@ -5112,34 +5112,34 @@
         <v>176.274091040601</v>
       </c>
       <c r="H12" t="n">
-        <v>88.13208718390854</v>
+        <v>88.13208718390852</v>
       </c>
       <c r="I12" t="n">
-        <v>77.53766591592083</v>
+        <v>77.53766591592073</v>
       </c>
       <c r="J12" t="n">
-        <v>193.8410919870415</v>
+        <v>193.8410919870412</v>
       </c>
       <c r="K12" t="n">
-        <v>470.7769964046661</v>
+        <v>470.7769964046653</v>
       </c>
       <c r="L12" t="n">
-        <v>889.4740370626181</v>
+        <v>889.4740370626168</v>
       </c>
       <c r="M12" t="n">
-        <v>1367.415930994296</v>
+        <v>1397.430603019145</v>
       </c>
       <c r="N12" t="n">
-        <v>1903.225240695506</v>
+        <v>1532.266717861145</v>
       </c>
       <c r="O12" t="n">
-        <v>2371.16628502803</v>
+        <v>2000.207762193668</v>
       </c>
       <c r="P12" t="n">
-        <v>2371.16628502803</v>
+        <v>2356.438638438442</v>
       </c>
       <c r="Q12" t="n">
-        <v>2559.377995458575</v>
+        <v>2544.650348868987</v>
       </c>
       <c r="R12" t="n">
         <v>2559.377995458575</v>
@@ -5173,37 +5173,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1003.287366026812</v>
+        <v>394.3869424262207</v>
       </c>
       <c r="C13" t="n">
-        <v>834.3511830989049</v>
+        <v>225.4507594983139</v>
       </c>
       <c r="D13" t="n">
-        <v>684.2345436865692</v>
+        <v>225.4507594983139</v>
       </c>
       <c r="E13" t="n">
-        <v>536.3214501041759</v>
+        <v>77.53766591592073</v>
       </c>
       <c r="F13" t="n">
-        <v>389.4315026062658</v>
+        <v>77.53766591592073</v>
       </c>
       <c r="G13" t="n">
-        <v>221.9335194174541</v>
+        <v>77.53766591592073</v>
       </c>
       <c r="H13" t="n">
-        <v>77.53766591592083</v>
+        <v>77.53766591592073</v>
       </c>
       <c r="I13" t="n">
-        <v>77.53766591592083</v>
+        <v>77.53766591592073</v>
       </c>
       <c r="J13" t="n">
         <v>136.8552218758653</v>
       </c>
       <c r="K13" t="n">
-        <v>364.1690246648151</v>
+        <v>364.1690246648145</v>
       </c>
       <c r="L13" t="n">
-        <v>710.5788654344818</v>
+        <v>710.578865434481</v>
       </c>
       <c r="M13" t="n">
         <v>1086.20859537694</v>
@@ -5212,37 +5212,37 @@
         <v>1458.341306336948</v>
       </c>
       <c r="O13" t="n">
-        <v>1786.049800818666</v>
+        <v>1786.049800818664</v>
       </c>
       <c r="P13" t="n">
-        <v>2042.940349010724</v>
+        <v>2042.940349010722</v>
       </c>
       <c r="Q13" t="n">
-        <v>2137.362968742809</v>
+        <v>2137.362968742808</v>
       </c>
       <c r="R13" t="n">
-        <v>2057.273296463738</v>
+        <v>2056.743466925583</v>
       </c>
       <c r="S13" t="n">
-        <v>2057.273296463738</v>
+        <v>1868.627619458879</v>
       </c>
       <c r="T13" t="n">
-        <v>2057.273296463738</v>
+        <v>1647.736286893319</v>
       </c>
       <c r="U13" t="n">
-        <v>1768.181603413189</v>
+        <v>1358.64459384277</v>
       </c>
       <c r="V13" t="n">
-        <v>1513.497115207303</v>
+        <v>1103.960105636883</v>
       </c>
       <c r="W13" t="n">
-        <v>1224.079945170342</v>
+        <v>814.5429355999222</v>
       </c>
       <c r="X13" t="n">
-        <v>1224.079945170342</v>
+        <v>796.8279863999906</v>
       </c>
       <c r="Y13" t="n">
-        <v>1003.287366026812</v>
+        <v>576.0354072564604</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168602</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
@@ -5282,46 +5282,46 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5349,31 +5349,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191924</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L15" t="n">
-        <v>923.067041434951</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="M15" t="n">
-        <v>1520.445529061503</v>
+        <v>1026.887310050512</v>
       </c>
       <c r="N15" t="n">
-        <v>2148.043492616109</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O15" t="n">
-        <v>2283.159972732779</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
         <v>2516.421633107662</v>
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>931.4710609784062</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="C16" t="n">
-        <v>762.5348780504993</v>
+        <v>390.8232499582143</v>
       </c>
       <c r="D16" t="n">
-        <v>612.4182386381635</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E16" t="n">
-        <v>464.5051450557704</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F16" t="n">
-        <v>317.61519755786</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
-        <v>317.61519755786</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5452,34 +5452,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235164</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258105</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602303</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1669.670361056914</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1380.253191019954</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>1152.263640121936</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y16" t="n">
-        <v>931.4710609784062</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
     <row r="17">
@@ -5492,70 +5492,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756265</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589157</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143764</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,37 +5647,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400646</v>
+        <v>538.7363435406127</v>
       </c>
       <c r="C19" t="n">
-        <v>513.8536007400646</v>
+        <v>538.7363435406127</v>
       </c>
       <c r="D19" t="n">
-        <v>363.736961327729</v>
+        <v>388.6197041282769</v>
       </c>
       <c r="E19" t="n">
-        <v>363.736961327729</v>
+        <v>240.7066105458838</v>
       </c>
       <c r="F19" t="n">
-        <v>216.8470138298186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>216.8470138298186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797741</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5689,34 +5689,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854699</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648812</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611852</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138345</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703044</v>
+        <v>720.3848083708524</v>
       </c>
     </row>
     <row r="20">
@@ -5744,22 +5744,22 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111719</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
         <v>2950.898526355937</v>
@@ -5777,10 +5777,10 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
         <v>4151.812499466573</v>
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>427.7414352191925</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L21" t="n">
-        <v>671.2000270096659</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M21" t="n">
-        <v>1268.578514636218</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N21" t="n">
-        <v>1896.176478190825</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,37 +5884,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400716</v>
+        <v>513.8536007400709</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121646</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121646</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121646</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F22" t="n">
-        <v>343.0994656851783</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G22" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5938,7 +5938,7 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
         <v>1688.385853854706</v>
@@ -5950,10 +5950,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138406</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703106</v>
       </c>
     </row>
     <row r="23">
@@ -5978,34 +5978,34 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075793</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
         <v>4562.265728852256</v>
@@ -6066,19 +6066,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N24" t="n">
-        <v>1859.536823237711</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
         <v>1859.536823237711</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>835.5837926935553</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>705.9324428257312</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="D25" t="n">
-        <v>555.8158034133954</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E25" t="n">
-        <v>407.9027098310023</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
         <v>93.81666304797187</v>
@@ -6148,10 +6148,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6166,31 +6166,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602303</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1755.431557602303</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1466.014387565343</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1238.024836667325</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>1017.232257523795</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6221,13 +6221,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6303,28 +6303,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L27" t="n">
-        <v>589.1422692637306</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M27" t="n">
-        <v>1186.520756890282</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N27" t="n">
-        <v>1814.118720444889</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O27" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>929.7309773356194</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232836</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6385,10 +6385,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
@@ -6397,7 +6397,7 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
@@ -6406,7 +6406,7 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S28" t="n">
         <v>2197.062545487567</v>
@@ -6418,16 +6418,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1501.108204237296</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1501.108204237296</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6452,7 +6452,7 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
@@ -6461,19 +6461,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6540,25 +6540,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>691.1951506745238</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1318.79311422913</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O30" t="n">
-        <v>1870.702844468417</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P30" t="n">
-        <v>2294.325993963485</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q30" t="n">
         <v>2516.421633107662</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>931.4710609784057</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>762.5348780504988</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>612.4182386381631</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E31" t="n">
-        <v>464.50514505577</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F31" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2386.690454827884</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S31" t="n">
-        <v>2386.690454827884</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2167.088989850825</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1878.013763195023</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1623.329274989136</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1333.912104952175</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1333.912104952175</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>1113.119525808645</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6674,19 +6674,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168602</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6695,7 +6695,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111717</v>
@@ -6707,19 +6707,19 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6731,19 +6731,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6780,25 +6780,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M33" t="n">
-        <v>691.1951506745238</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N33" t="n">
-        <v>1318.79311422913</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O33" t="n">
-        <v>1870.702844468417</v>
+        <v>2102.574735228845</v>
       </c>
       <c r="P33" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>869.6905094135295</v>
+        <v>513.8536007400716</v>
       </c>
       <c r="C34" t="n">
-        <v>700.7543264856226</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="D34" t="n">
-        <v>550.637687073287</v>
+        <v>343.0994656851784</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908938</v>
+        <v>343.0994656851784</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908938</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6859,10 +6859,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
@@ -6880,28 +6880,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2333.297989183966</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2333.297989183966</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>2044.222762528164</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1789.538274322277</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1500.121104285317</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>1272.131553387299</v>
+        <v>916.2946447138414</v>
       </c>
       <c r="Y34" t="n">
-        <v>1051.338974243769</v>
+        <v>695.5020655703113</v>
       </c>
     </row>
     <row r="35">
@@ -6929,22 +6929,22 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
         <v>2950.898526355937</v>
@@ -6962,13 +6962,13 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
         <v>3820.749612123002</v>
@@ -6977,7 +6977,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7008,31 +7008,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M36" t="n">
-        <v>691.1951506745238</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N36" t="n">
-        <v>1318.79311422913</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>1870.702844468417</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
         <v>2516.421633107662</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1016.58045691144</v>
+        <v>580.899304487668</v>
       </c>
       <c r="C37" t="n">
-        <v>847.6442739835331</v>
+        <v>411.9631215597611</v>
       </c>
       <c r="D37" t="n">
-        <v>697.5276345711974</v>
+        <v>408.9258559154851</v>
       </c>
       <c r="E37" t="n">
-        <v>549.6145409888043</v>
+        <v>261.012762333092</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>261.012762333092</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038335</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797736</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N37" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q37" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235164</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258105</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602303</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396416</v>
       </c>
       <c r="W37" t="n">
-        <v>1433.701365648819</v>
+        <v>1211.329899359455</v>
       </c>
       <c r="X37" t="n">
-        <v>1237.37303605497</v>
+        <v>983.3403484614378</v>
       </c>
       <c r="Y37" t="n">
-        <v>1016.58045691144</v>
+        <v>762.5477693179078</v>
       </c>
     </row>
     <row r="38">
@@ -7160,49 +7160,49 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168602</v>
+        <v>793.7736536168601</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362676</v>
+        <v>379.8308874362675</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
         <v>4151.812499466572</v>
@@ -7245,31 +7245,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L39" t="n">
-        <v>589.1422692637306</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M39" t="n">
-        <v>1186.520756890282</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="N39" t="n">
-        <v>1814.118720444889</v>
+        <v>1366.386875345992</v>
       </c>
       <c r="O39" t="n">
-        <v>2366.028450684176</v>
+        <v>1918.296605585279</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>783.5579673960132</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="C40" t="n">
-        <v>614.6217844681063</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="D40" t="n">
-        <v>464.5051450557705</v>
+        <v>194.8007783998288</v>
       </c>
       <c r="E40" t="n">
-        <v>464.5051450557705</v>
+        <v>194.8007783998288</v>
       </c>
       <c r="F40" t="n">
-        <v>317.6151975578601</v>
+        <v>194.8007783998288</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.741944003834</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L40" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
@@ -7348,7 +7348,7 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
         <v>2446.96308358026</v>
@@ -7366,16 +7366,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1475.416181406744</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1185.999011369783</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1185.999011369783</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>965.2064322262529</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
     <row r="41">
@@ -7406,13 +7406,13 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7421,7 +7421,7 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7430,7 +7430,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7454,7 +7454,7 @@
         <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7485,31 +7485,31 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2297.690135143765</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>789.7592298206043</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>620.8230468926974</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D43" t="n">
-        <v>470.7064074803617</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E43" t="n">
-        <v>322.7933138979686</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F43" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G43" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797186</v>
@@ -7573,7 +7573,7 @@
         <v>435.7419440038342</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
@@ -7591,28 +7591,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>971.4076946508441</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7652,13 +7652,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7667,7 +7667,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7682,7 +7682,7 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
         <v>3467.980956852889</v>
@@ -7728,13 +7728,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N45" t="n">
         <v>1307.627092998424</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>849.3843576263199</v>
+        <v>513.8536007400713</v>
       </c>
       <c r="C46" t="n">
-        <v>680.448174698413</v>
+        <v>388.6197041282754</v>
       </c>
       <c r="D46" t="n">
-        <v>530.3315352860773</v>
+        <v>388.6197041282754</v>
       </c>
       <c r="E46" t="n">
-        <v>382.4184417036841</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7807,10 +7807,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L46" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
@@ -7822,34 +7822,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S46" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>1251.825401600089</v>
+        <v>916.2946447138412</v>
       </c>
       <c r="Y46" t="n">
-        <v>1031.03282245656</v>
+        <v>695.5020655703111</v>
       </c>
     </row>
   </sheetData>
@@ -8000,7 +8000,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.51967546761151</v>
+        <v>60.51967546761153</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>2.051220519418237</v>
+        <v>2.051220519418266</v>
       </c>
       <c r="K3" t="n">
-        <v>97.32166909127241</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8076,7 +8076,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>97.32166909127237</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8237,7 +8237,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>34.4393943863702</v>
+        <v>34.43939438637003</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>105.5468419254473</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8304,7 +8304,7 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>21.56058953000775</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8532,7 +8532,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8544,13 +8544,13 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>138.9393975111059</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>84.9418658837474</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>20.93778120154991</v>
@@ -23261,22 +23261,22 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>143.4284494611881</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>77.92385755228088</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>289.9775033393747</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>24.14662204184543</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.8230033569236</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.9518949665179</v>
       </c>
       <c r="I13" t="n">
-        <v>90.2535238992737</v>
+        <v>90.25352389927376</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0.52453124277217</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>186.2346889920368</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>218.682419239904</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>208.1718556811048</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23507,7 +23507,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.041087216435699e-12</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23650,16 +23650,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>45.4467738245893</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23668,10 +23668,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23710,7 +23710,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>167.234058743893</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23896,7 +23896,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23905,10 +23905,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>18.49466557219562</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>24.63391537253629</v>
       </c>
     </row>
     <row r="20">
@@ -24127,25 +24127,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>46.45968844823136</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>143.6212754172148</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24364,10 +24364,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>38.89198472948192</v>
+        <v>43.2652634529499</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24376,7 +24376,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24421,7 +24421,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24604,22 +24604,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>46.45968844823108</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24658,13 +24658,13 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>66.73277020259228</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24841,22 +24841,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>46.45968844823099</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,10 +24883,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>6.70534424526943</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24901,7 +24901,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25078,10 +25078,10 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>146.815700412496</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25090,10 +25090,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,13 +25120,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>68.49784254931392</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25309,25 +25309,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>145.6085800303791</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25372,10 +25372,10 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>31.34460909112661</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25558,16 +25558,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>65.54986409393049</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25606,13 +25606,13 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>41.2976676003457</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25786,7 +25786,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25795,7 +25795,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -25804,7 +25804,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,10 +25831,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25852,7 +25852,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>25.74504007796128</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26023,10 +26023,10 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>43.26526345294987</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26038,7 +26038,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26068,10 +26068,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26086,7 +26086,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>84.77391660561995</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>888866.1965694732</v>
+        <v>888866.1965694727</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>978335.0230682045</v>
+        <v>978335.0230682046</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>978335.0230682048</v>
+        <v>978335.0230682045</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>978335.0230682048</v>
+        <v>978335.0230682046</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>978335.0230682048</v>
+        <v>978335.0230682046</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>978335.0230682048</v>
+        <v>978335.0230682046</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>978335.0230682048</v>
+        <v>978335.0230682046</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>978335.0230682048</v>
+        <v>978335.0230682045</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>451572.9734253555</v>
+        <v>451572.9734253558</v>
       </c>
       <c r="C2" t="n">
-        <v>451572.9734253557</v>
+        <v>451572.9734253558</v>
       </c>
       <c r="D2" t="n">
-        <v>451572.9734253559</v>
+        <v>451572.9734253556</v>
       </c>
       <c r="E2" t="n">
-        <v>402924.0843509181</v>
+        <v>402924.0843509178</v>
       </c>
       <c r="F2" t="n">
-        <v>443930.6298295033</v>
+        <v>443930.6298295035</v>
       </c>
       <c r="G2" t="n">
-        <v>443930.6298295033</v>
+        <v>443930.6298295032</v>
       </c>
       <c r="H2" t="n">
         <v>443930.6298295034</v>
       </c>
       <c r="I2" t="n">
+        <v>443930.6298295033</v>
+      </c>
+      <c r="J2" t="n">
+        <v>443930.6298295035</v>
+      </c>
+      <c r="K2" t="n">
         <v>443930.6298295034</v>
-      </c>
-      <c r="J2" t="n">
-        <v>443930.6298295034</v>
-      </c>
-      <c r="K2" t="n">
-        <v>443930.6298295035</v>
       </c>
       <c r="L2" t="n">
         <v>443930.6298295034</v>
       </c>
       <c r="M2" t="n">
-        <v>443930.6298295035</v>
+        <v>443930.6298295033</v>
       </c>
       <c r="N2" t="n">
         <v>443930.6298295034</v>
       </c>
       <c r="O2" t="n">
-        <v>443930.6298295035</v>
+        <v>443930.6298295032</v>
       </c>
       <c r="P2" t="n">
-        <v>443930.6298295031</v>
+        <v>443930.6298295032</v>
       </c>
     </row>
     <row r="3">
@@ -26363,25 +26363,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>680087.9805911932</v>
+        <v>680087.9805911931</v>
       </c>
       <c r="C3" t="n">
-        <v>132804.2190657064</v>
+        <v>132804.2190657074</v>
       </c>
       <c r="D3" t="n">
-        <v>265413.0723929381</v>
+        <v>265413.0723929373</v>
       </c>
       <c r="E3" t="n">
-        <v>313577.1573545785</v>
+        <v>313577.1573545772</v>
       </c>
       <c r="F3" t="n">
-        <v>189308.2687704276</v>
+        <v>189308.2687704291</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26390,16 +26390,16 @@
         <v>68999.15441911407</v>
       </c>
       <c r="K3" t="n">
-        <v>30877.4292641741</v>
+        <v>30877.42926417432</v>
       </c>
       <c r="L3" t="n">
-        <v>65018.34502049576</v>
+        <v>65018.34502049553</v>
       </c>
       <c r="M3" t="n">
-        <v>81897.40371273112</v>
+        <v>81897.40371273075</v>
       </c>
       <c r="N3" t="n">
-        <v>49839.57413202322</v>
+        <v>49839.57413202369</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26418,7 +26418,7 @@
         <v>250332.6659748621</v>
       </c>
       <c r="C4" t="n">
-        <v>214511.7974947651</v>
+        <v>214511.7974947648</v>
       </c>
       <c r="D4" t="n">
         <v>139134.5471223413</v>
@@ -26427,10 +26427,10 @@
         <v>10451.66972713467</v>
       </c>
       <c r="F4" t="n">
-        <v>10557.08828678121</v>
+        <v>10557.08828678125</v>
       </c>
       <c r="G4" t="n">
-        <v>10557.08828678121</v>
+        <v>10557.08828678119</v>
       </c>
       <c r="H4" t="n">
         <v>10557.08828678121</v>
@@ -26439,22 +26439,22 @@
         <v>10557.08828678121</v>
       </c>
       <c r="J4" t="n">
+        <v>10557.08828678121</v>
+      </c>
+      <c r="K4" t="n">
         <v>10557.08828678122</v>
       </c>
-      <c r="K4" t="n">
+      <c r="L4" t="n">
         <v>10557.08828678121</v>
       </c>
-      <c r="L4" t="n">
-        <v>10557.08828678117</v>
-      </c>
       <c r="M4" t="n">
-        <v>10557.08828678123</v>
+        <v>10557.08828678125</v>
       </c>
       <c r="N4" t="n">
         <v>10557.08828678125</v>
       </c>
       <c r="O4" t="n">
-        <v>10557.08828678127</v>
+        <v>10557.08828678124</v>
       </c>
       <c r="P4" t="n">
         <v>10557.08828678121</v>
@@ -26467,16 +26467,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63047.8032042662</v>
+        <v>63047.80320426619</v>
       </c>
       <c r="C5" t="n">
-        <v>72593.65038667491</v>
+        <v>72593.65038667497</v>
       </c>
       <c r="D5" t="n">
         <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
-        <v>85137.48506738577</v>
+        <v>85137.48506738566</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-541895.476344966</v>
+        <v>-541895.4763449656</v>
       </c>
       <c r="C6" t="n">
-        <v>31663.30647820939</v>
+        <v>31663.30647820857</v>
       </c>
       <c r="D6" t="n">
-        <v>-45912.41852976824</v>
+        <v>-45912.41852976766</v>
       </c>
       <c r="E6" t="n">
-        <v>-6242.227798180858</v>
+        <v>-6463.359112154412</v>
       </c>
       <c r="F6" t="n">
-        <v>142942.7429483874</v>
+        <v>142908.0050229503</v>
       </c>
       <c r="G6" t="n">
-        <v>332251.011718815</v>
+        <v>332216.2737933793</v>
       </c>
       <c r="H6" t="n">
-        <v>332251.0117188148</v>
+        <v>332216.2737933794</v>
       </c>
       <c r="I6" t="n">
-        <v>332251.0117188151</v>
+        <v>332216.2737933793</v>
       </c>
       <c r="J6" t="n">
-        <v>263251.857299701</v>
+        <v>263217.1193742654</v>
       </c>
       <c r="K6" t="n">
-        <v>301373.5824546411</v>
+        <v>301338.844529205</v>
       </c>
       <c r="L6" t="n">
-        <v>267232.6666983194</v>
+        <v>267197.9287728838</v>
       </c>
       <c r="M6" t="n">
-        <v>250353.608006084</v>
+        <v>250318.8700806485</v>
       </c>
       <c r="N6" t="n">
-        <v>282411.4375867919</v>
+        <v>282376.6996613556</v>
       </c>
       <c r="O6" t="n">
-        <v>332251.0117188151</v>
+        <v>332216.2737933791</v>
       </c>
       <c r="P6" t="n">
-        <v>332251.0117188148</v>
+        <v>332216.2737933792</v>
       </c>
     </row>
   </sheetData>
@@ -26695,7 +26695,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26719,10 +26719,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>4.223655907778799e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26735,16 +26735,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694784</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="C3" t="n">
-        <v>717.3319511695744</v>
+        <v>717.3319511695751</v>
       </c>
       <c r="D3" t="n">
         <v>934.0648921175391</v>
       </c>
       <c r="E3" t="n">
-        <v>1202.241237214951</v>
+        <v>1202.24123721495</v>
       </c>
       <c r="F3" t="n">
         <v>1367.975500341674</v>
@@ -26787,16 +26787,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="C4" t="n">
-        <v>383.6877278154306</v>
+        <v>383.6877278154314</v>
       </c>
       <c r="D4" t="n">
         <v>640.5848321000387</v>
       </c>
       <c r="E4" t="n">
-        <v>969.2208239490103</v>
+        <v>969.2208239490091</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26917,7 +26917,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26957,25 +26957,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694784</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="C3" t="n">
-        <v>103.276937400096</v>
+        <v>103.2769374000968</v>
       </c>
       <c r="D3" t="n">
-        <v>216.7329409479647</v>
+        <v>216.732940947964</v>
       </c>
       <c r="E3" t="n">
-        <v>268.1763450974122</v>
+        <v>268.1763450974111</v>
       </c>
       <c r="F3" t="n">
-        <v>165.7342631267222</v>
+        <v>165.7342631267236</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27009,19 +27009,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="C4" t="n">
-        <v>119.9738478139244</v>
+        <v>119.9738478139253</v>
       </c>
       <c r="D4" t="n">
-        <v>256.8971042846081</v>
+        <v>256.8971042846073</v>
       </c>
       <c r="E4" t="n">
-        <v>328.6359918489716</v>
+        <v>328.6359918489703</v>
       </c>
       <c r="F4" t="n">
-        <v>203.4874641506378</v>
+        <v>203.4874641506393</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27036,16 +27036,16 @@
         <v>263.7138800015061</v>
       </c>
       <c r="K4" t="n">
-        <v>119.9738478139244</v>
+        <v>119.9738478139253</v>
       </c>
       <c r="L4" t="n">
-        <v>256.8971042846081</v>
+        <v>256.8971042846073</v>
       </c>
       <c r="M4" t="n">
-        <v>328.6359918489716</v>
+        <v>328.6359918489701</v>
       </c>
       <c r="N4" t="n">
-        <v>203.4874641506376</v>
+        <v>203.4874641506395</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27154,7 +27154,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27255,19 +27255,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="K4" t="n">
-        <v>119.9738478139244</v>
+        <v>119.9738478139253</v>
       </c>
       <c r="L4" t="n">
-        <v>256.8971042846081</v>
+        <v>256.8971042846073</v>
       </c>
       <c r="M4" t="n">
-        <v>328.6359918489716</v>
+        <v>328.6359918489703</v>
       </c>
       <c r="N4" t="n">
-        <v>203.4874641506378</v>
+        <v>203.4874641506393</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27376,16 +27376,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>119.0199616619744</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>101.5590117695014</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>142.1140765027779</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>118.2164900707556</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27394,7 +27394,7 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>50.47975262776178</v>
+        <v>314.193632629268</v>
       </c>
       <c r="I2" t="n">
         <v>115.3066195468971</v>
@@ -27427,16 +27427,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>212.2897156032232</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1481678782825</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>64.03837846862876</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27445,7 +27445,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>313.8709546141471</v>
       </c>
     </row>
     <row r="3">
@@ -27455,28 +27455,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>156.0465223954742</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>99.47932027120976</v>
       </c>
       <c r="I3" t="n">
-        <v>43.92180400150558</v>
+        <v>43.9218040015056</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,28 +27503,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.15252495527767</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T3" t="n">
-        <v>130.6785330191063</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27543,13 +27543,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.8836670385466</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>152.3821593358568</v>
@@ -27558,7 +27558,7 @@
         <v>122.1505735248085</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888208</v>
+        <v>15.07219909888209</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,25 +27582,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S4" t="n">
-        <v>155.2856342327747</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2586305026775</v>
+        <v>22.54475050117134</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>208.769076415865</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27616,25 +27616,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>48.71629508122942</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>23.18831792628004</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>309.9416328899766</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>99.30025118863688</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>143.3066953660376</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>210.4722490968155</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1149531848473</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>20.69267365600655</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>2.550210840622981</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27695,13 +27695,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>84.01631851775956</v>
+        <v>61.86825919803148</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -27710,10 +27710,10 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>97.33388804333227</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>36.2734647695173</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27749,7 +27749,7 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8398728426018</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -27758,7 +27758,7 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -27771,31 +27771,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>79.64345343374096</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.6974299383169</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>150.7263422083602</v>
       </c>
       <c r="I7" t="n">
-        <v>116.5499160015378</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>1.905236112643522</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,16 +27819,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>119.1307056315184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>201.4735595059547</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>222.4186055422208</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>104.9280526513071</v>
+        <v>286.2484721153922</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27837,7 +27837,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>294.024162310639</v>
       </c>
       <c r="H8" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,19 +27904,19 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>14.41194187722428</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,28 +28008,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>51.51166216156548</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,25 +28059,25 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>6.561538634396783</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28488,7 +28488,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>3.587530272852746e-12</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -28615,7 +28615,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>1.828937001846498e-12</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -28776,7 +28776,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>-3.782869366626501e-12</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -29010,7 +29010,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -29272,7 +29272,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -29527,7 +29527,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -30043,13 +30043,13 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -30238,7 +30238,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>9.426059932593489e-13</v>
+        <v>1.080024958355352e-12</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30457,7 +30457,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>7.71678812803845e-13</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -30526,7 +30526,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -31039,31 +31039,31 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.468562869425037</v>
+        <v>2.468562869425036</v>
       </c>
       <c r="H2" t="n">
         <v>25.28116948649916</v>
       </c>
       <c r="I2" t="n">
-        <v>95.16927002350883</v>
+        <v>95.1692700235088</v>
       </c>
       <c r="J2" t="n">
         <v>209.5161878388634</v>
       </c>
       <c r="K2" t="n">
-        <v>314.0104541016253</v>
+        <v>314.0104541016252</v>
       </c>
       <c r="L2" t="n">
         <v>389.5577350167918</v>
       </c>
       <c r="M2" t="n">
-        <v>433.4580399459293</v>
+        <v>433.4580399459292</v>
       </c>
       <c r="N2" t="n">
-        <v>440.4718441986832</v>
+        <v>440.4718441986831</v>
       </c>
       <c r="O2" t="n">
-        <v>415.925072165838</v>
+        <v>415.9250721658379</v>
       </c>
       <c r="P2" t="n">
         <v>354.9824263269073</v>
@@ -31075,7 +31075,7 @@
         <v>155.0658623465206</v>
       </c>
       <c r="S2" t="n">
-        <v>56.25237638702308</v>
+        <v>56.25237638702307</v>
       </c>
       <c r="T2" t="n">
         <v>10.8061339609081</v>
@@ -31124,16 +31124,16 @@
         <v>12.75612396528671</v>
       </c>
       <c r="I3" t="n">
-        <v>45.47482884990949</v>
+        <v>45.47482884990948</v>
       </c>
       <c r="J3" t="n">
-        <v>124.7864061472485</v>
+        <v>124.7864061472484</v>
       </c>
       <c r="K3" t="n">
         <v>213.2798437919895</v>
       </c>
       <c r="L3" t="n">
-        <v>286.7810703458305</v>
+        <v>286.7810703458304</v>
       </c>
       <c r="M3" t="n">
         <v>334.6599825043656</v>
@@ -31142,25 +31142,25 @@
         <v>343.517436429399</v>
       </c>
       <c r="O3" t="n">
-        <v>314.2513427542726</v>
+        <v>314.2513427542725</v>
       </c>
       <c r="P3" t="n">
-        <v>252.2144074480713</v>
+        <v>252.2144074480712</v>
       </c>
       <c r="Q3" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R3" t="n">
-        <v>82.00530919736546</v>
+        <v>82.00530919736545</v>
       </c>
       <c r="S3" t="n">
         <v>24.53323569163905</v>
       </c>
       <c r="T3" t="n">
-        <v>5.323741109944815</v>
+        <v>5.323741109944814</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08689457742020924</v>
+        <v>0.08689457742020923</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31200,16 +31200,16 @@
         <v>1.107312319912174</v>
       </c>
       <c r="H4" t="n">
-        <v>9.84501317158279</v>
+        <v>9.845013171582789</v>
       </c>
       <c r="I4" t="n">
         <v>33.29990140244975</v>
       </c>
       <c r="J4" t="n">
-        <v>78.28698101779069</v>
+        <v>78.28698101779068</v>
       </c>
       <c r="K4" t="n">
-        <v>128.6495586225235</v>
+        <v>128.6495586225234</v>
       </c>
       <c r="L4" t="n">
         <v>164.6271425440336</v>
@@ -31221,25 +31221,25 @@
         <v>169.4489843734694</v>
       </c>
       <c r="O4" t="n">
-        <v>156.5135631817681</v>
+        <v>156.513563181768</v>
       </c>
       <c r="P4" t="n">
         <v>133.9243918555596</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.72230707919122</v>
+        <v>92.72230707919121</v>
       </c>
       <c r="R4" t="n">
-        <v>49.78878849350556</v>
+        <v>49.78878849350555</v>
       </c>
       <c r="S4" t="n">
-        <v>19.29743379337852</v>
+        <v>19.29743379337851</v>
       </c>
       <c r="T4" t="n">
-        <v>4.731243548715652</v>
+        <v>4.731243548715651</v>
       </c>
       <c r="U4" t="n">
-        <v>0.06039885381339138</v>
+        <v>0.06039885381339136</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.883746537365121</v>
+        <v>2.883746537365124</v>
       </c>
       <c r="H5" t="n">
-        <v>29.53316922579055</v>
+        <v>29.53316922579058</v>
       </c>
       <c r="I5" t="n">
-        <v>111.1756383817689</v>
+        <v>111.175638381769</v>
       </c>
       <c r="J5" t="n">
-        <v>244.7543826756932</v>
+        <v>244.7543826756934</v>
       </c>
       <c r="K5" t="n">
-        <v>366.8233736023588</v>
+        <v>366.8233736023591</v>
       </c>
       <c r="L5" t="n">
-        <v>455.0768316952467</v>
+        <v>455.0768316952472</v>
       </c>
       <c r="M5" t="n">
-        <v>506.3606591791137</v>
+        <v>506.3606591791141</v>
       </c>
       <c r="N5" t="n">
-        <v>514.5541040284023</v>
+        <v>514.5541040284029</v>
       </c>
       <c r="O5" t="n">
-        <v>485.8788493974779</v>
+        <v>485.8788493974783</v>
       </c>
       <c r="P5" t="n">
-        <v>414.6863567562764</v>
+        <v>414.6863567562768</v>
       </c>
       <c r="Q5" t="n">
-        <v>311.4121838868879</v>
+        <v>311.4121838868882</v>
       </c>
       <c r="R5" t="n">
-        <v>181.1461434277619</v>
+        <v>181.1461434277621</v>
       </c>
       <c r="S5" t="n">
-        <v>65.71337422020775</v>
+        <v>65.71337422020783</v>
       </c>
       <c r="T5" t="n">
-        <v>12.62360046731582</v>
+        <v>12.62360046731584</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2306997229892096</v>
+        <v>0.2306997229892098</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.542940423270405</v>
+        <v>1.542940423270407</v>
       </c>
       <c r="H6" t="n">
-        <v>14.90155619316418</v>
+        <v>14.90155619316419</v>
       </c>
       <c r="I6" t="n">
-        <v>53.12316808189773</v>
+        <v>53.12316808189778</v>
       </c>
       <c r="J6" t="n">
-        <v>145.7740335862623</v>
+        <v>145.7740335862624</v>
       </c>
       <c r="K6" t="n">
-        <v>249.1510419453795</v>
+        <v>249.1510419453797</v>
       </c>
       <c r="L6" t="n">
-        <v>335.0143230438659</v>
+        <v>335.0143230438662</v>
       </c>
       <c r="M6" t="n">
-        <v>390.945913387418</v>
+        <v>390.9459133874184</v>
       </c>
       <c r="N6" t="n">
-        <v>401.2930884189113</v>
+        <v>401.2930884189116</v>
       </c>
       <c r="O6" t="n">
-        <v>367.104776934867</v>
+        <v>367.1047769348673</v>
       </c>
       <c r="P6" t="n">
-        <v>294.6339480190654</v>
+        <v>294.6339480190657</v>
       </c>
       <c r="Q6" t="n">
-        <v>196.9549915739556</v>
+        <v>196.9549915739558</v>
       </c>
       <c r="R6" t="n">
-        <v>95.79765189392924</v>
+        <v>95.79765189392933</v>
       </c>
       <c r="S6" t="n">
-        <v>28.65944163399194</v>
+        <v>28.65944163399197</v>
       </c>
       <c r="T6" t="n">
-        <v>6.219132670989044</v>
+        <v>6.219132670989049</v>
       </c>
       <c r="U6" t="n">
-        <v>0.101509238373053</v>
+        <v>0.1015092383730531</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.293549420141855</v>
+        <v>1.293549420141856</v>
       </c>
       <c r="H7" t="n">
-        <v>11.50083029907941</v>
+        <v>11.50083029907942</v>
       </c>
       <c r="I7" t="n">
-        <v>38.90055892572053</v>
+        <v>38.90055892572057</v>
       </c>
       <c r="J7" t="n">
-        <v>91.45394400402917</v>
+        <v>91.45394400402925</v>
       </c>
       <c r="K7" t="n">
-        <v>150.2869235401173</v>
+        <v>150.2869235401175</v>
       </c>
       <c r="L7" t="n">
-        <v>192.3155201545446</v>
+        <v>192.3155201545448</v>
       </c>
       <c r="M7" t="n">
-        <v>202.7697513773273</v>
+        <v>202.7697513773275</v>
       </c>
       <c r="N7" t="n">
-        <v>197.9483399022533</v>
+        <v>197.9483399022535</v>
       </c>
       <c r="O7" t="n">
-        <v>182.8373307669598</v>
+        <v>182.8373307669599</v>
       </c>
       <c r="P7" t="n">
-        <v>156.4489225960658</v>
+        <v>156.4489225960659</v>
       </c>
       <c r="Q7" t="n">
-        <v>108.3171246266057</v>
+        <v>108.3171246266058</v>
       </c>
       <c r="R7" t="n">
-        <v>58.16268574565105</v>
+        <v>58.1626857456511</v>
       </c>
       <c r="S7" t="n">
-        <v>22.5430385310176</v>
+        <v>22.54303853101762</v>
       </c>
       <c r="T7" t="n">
-        <v>5.526983886060653</v>
+        <v>5.526983886060658</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07055724109864674</v>
+        <v>0.07055724109864681</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.833130601869147</v>
+        <v>4.833130601869143</v>
       </c>
       <c r="H11" t="n">
-        <v>49.49729877639242</v>
+        <v>49.49729877639237</v>
       </c>
       <c r="I11" t="n">
-        <v>186.3292675285605</v>
+        <v>186.3292675285603</v>
       </c>
       <c r="J11" t="n">
-        <v>410.2059184203919</v>
+        <v>410.2059184203915</v>
       </c>
       <c r="K11" t="n">
-        <v>614.792336797513</v>
+        <v>614.7923367975125</v>
       </c>
       <c r="L11" t="n">
-        <v>762.7042574544661</v>
+        <v>762.7042574544654</v>
       </c>
       <c r="M11" t="n">
-        <v>848.6554437954566</v>
+        <v>848.6554437954558</v>
       </c>
       <c r="N11" t="n">
-        <v>862.3875761180174</v>
+        <v>862.3875761180165</v>
       </c>
       <c r="O11" t="n">
-        <v>814.3281336956809</v>
+        <v>814.3281336956802</v>
       </c>
       <c r="P11" t="n">
-        <v>695.0102219620362</v>
+        <v>695.0102219620356</v>
       </c>
       <c r="Q11" t="n">
-        <v>521.9237322825973</v>
+        <v>521.9237322825968</v>
       </c>
       <c r="R11" t="n">
-        <v>303.5991401696631</v>
+        <v>303.5991401696628</v>
       </c>
       <c r="S11" t="n">
-        <v>110.1349635900933</v>
+        <v>110.1349635900932</v>
       </c>
       <c r="T11" t="n">
-        <v>21.1570292096822</v>
+        <v>21.15702920968218</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3866504481495317</v>
+        <v>0.3866504481495314</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.585952849858574</v>
+        <v>2.585952849858572</v>
       </c>
       <c r="H12" t="n">
-        <v>24.97486041837097</v>
+        <v>24.97486041837095</v>
       </c>
       <c r="I12" t="n">
-        <v>89.03390294469216</v>
+        <v>89.03390294469207</v>
       </c>
       <c r="J12" t="n">
-        <v>244.3158348193139</v>
+        <v>244.3158348193136</v>
       </c>
       <c r="K12" t="n">
-        <v>417.5746757598383</v>
+        <v>417.5746757598379</v>
       </c>
       <c r="L12" t="n">
-        <v>561.4806834747752</v>
+        <v>561.4806834747747</v>
       </c>
       <c r="M12" t="n">
-        <v>624.9036237519956</v>
+        <v>655.2214742821477</v>
       </c>
       <c r="N12" t="n">
-        <v>672.563237034051</v>
+        <v>267.539807883333</v>
       </c>
       <c r="O12" t="n">
-        <v>615.2639659924478</v>
+        <v>615.2639659924472</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>493.8035753383444</v>
       </c>
       <c r="Q12" t="n">
-        <v>330.0946129047542</v>
+        <v>330.0946129047539</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>160.5559146605174</v>
       </c>
       <c r="S12" t="n">
-        <v>48.03293999627656</v>
+        <v>48.03293999627652</v>
       </c>
       <c r="T12" t="n">
-        <v>10.42320468868434</v>
+        <v>10.42320468868433</v>
       </c>
       <c r="U12" t="n">
-        <v>0.17012847696438</v>
+        <v>0.1701284769643798</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.167976001535158</v>
+        <v>2.167976001535156</v>
       </c>
       <c r="H13" t="n">
-        <v>19.27527754092169</v>
+        <v>19.27527754092167</v>
       </c>
       <c r="I13" t="n">
-        <v>65.19695102798458</v>
+        <v>65.19695102798453</v>
       </c>
       <c r="J13" t="n">
-        <v>153.2759033085356</v>
+        <v>153.2759033085355</v>
       </c>
       <c r="K13" t="n">
-        <v>251.8793936329028</v>
+        <v>251.8793936329026</v>
       </c>
       <c r="L13" t="n">
-        <v>322.3189048100543</v>
+        <v>322.3189048100541</v>
       </c>
       <c r="M13" t="n">
-        <v>339.8400926770066</v>
+        <v>339.8400926770062</v>
       </c>
       <c r="N13" t="n">
-        <v>331.7594548531031</v>
+        <v>331.7594548531027</v>
       </c>
       <c r="O13" t="n">
-        <v>306.4335533806241</v>
+        <v>306.4335533806238</v>
       </c>
       <c r="P13" t="n">
-        <v>262.2068429493066</v>
+        <v>262.2068429493063</v>
       </c>
       <c r="Q13" t="n">
-        <v>181.5384268194576</v>
+        <v>181.5384268194575</v>
       </c>
       <c r="R13" t="n">
-        <v>97.48008457811716</v>
+        <v>97.48008457811707</v>
       </c>
       <c r="S13" t="n">
-        <v>37.78190904493542</v>
+        <v>37.78190904493538</v>
       </c>
       <c r="T13" t="n">
-        <v>9.26317018837749</v>
+        <v>9.263170188377481</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1182532364473724</v>
+        <v>0.1182532364473723</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,37 +31987,37 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
         <v>345.4516222043725</v>
@@ -32026,10 +32026,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32072,7 +32072,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>126.8376266666667</v>
@@ -32081,31 +32081,31 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473071</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071783</v>
+        <v>650.5350891770659</v>
       </c>
       <c r="O15" t="n">
-        <v>279.077537491586</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.689256441856</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32151,28 +32151,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32181,7 +32181,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32224,37 +32224,37 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
         <v>345.4516222043725</v>
@@ -32263,10 +32263,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32309,40 +32309,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862119</v>
+        <v>377.6350660745956</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071783</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>400.5469039565771</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
         <v>0.1935814387275954</v>
@@ -32388,28 +32388,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
         <v>206.5643005515927</v>
@@ -32418,7 +32418,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32549,13 +32549,13 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>384.4721492652009</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
@@ -32564,16 +32564,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>140.7358547888808</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32786,10 +32786,10 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>260.1710714068256</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
@@ -32798,10 +32798,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>322.6999460717714</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
         <v>561.8765786214698</v>
@@ -33023,13 +33023,13 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>533.6019216797995</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
@@ -33038,16 +33038,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33260,28 +33260,28 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>428.7353800421384</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>364.3208035245835</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
@@ -33500,13 +33500,13 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
@@ -33515,13 +33515,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>316.3837382263852</v>
       </c>
       <c r="Q33" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33731,19 +33731,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>240.4469701760392</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
@@ -33755,7 +33755,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>364.3208035245835</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
         <v>182.6892564418561</v>
@@ -33971,7 +33971,7 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
         <v>137.841438974359</v>
@@ -33980,7 +33980,7 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
@@ -33989,10 +33989,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>322.8964653704906</v>
+        <v>539.5330155967683</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34205,7 +34205,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34220,19 +34220,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>320.9147064709964</v>
       </c>
       <c r="O42" t="n">
-        <v>400.5469039565762</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34448,16 +34448,16 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>423.9151577118742</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.47028331217712</v>
+        <v>28.47028331217709</v>
       </c>
       <c r="K2" t="n">
-        <v>93.92060305664472</v>
+        <v>93.92060305664467</v>
       </c>
       <c r="L2" t="n">
-        <v>153.7913200468046</v>
+        <v>153.7913200468045</v>
       </c>
       <c r="M2" t="n">
-        <v>203.1118067186566</v>
+        <v>203.1118067186565</v>
       </c>
       <c r="N2" t="n">
-        <v>211.0587806020923</v>
+        <v>211.0587806020922</v>
       </c>
       <c r="O2" t="n">
-        <v>185.8268607441513</v>
+        <v>185.8268607441512</v>
       </c>
       <c r="P2" t="n">
-        <v>123.7494305716378</v>
+        <v>123.7494305716377</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.27132869117364</v>
+        <v>44.27132869117358</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,10 +34778,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>172.7600739089029</v>
+        <v>75.43840481763047</v>
       </c>
       <c r="L3" t="n">
-        <v>148.2266905659563</v>
+        <v>148.2266905659562</v>
       </c>
       <c r="M3" t="n">
         <v>192.5259485823473</v>
@@ -34796,7 +34796,7 @@
         <v>118.240000033741</v>
       </c>
       <c r="Q3" t="n">
-        <v>28.61687799649641</v>
+        <v>125.9385470877688</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34875,7 +34875,7 @@
         <v>131.2029511204531</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.56026382749684</v>
+        <v>6.560263827496826</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>63.70847814900688</v>
+        <v>63.70847814900711</v>
       </c>
       <c r="K5" t="n">
-        <v>146.7335225573783</v>
+        <v>146.7335225573786</v>
       </c>
       <c r="L5" t="n">
-        <v>219.3104167252595</v>
+        <v>219.3104167252599</v>
       </c>
       <c r="M5" t="n">
-        <v>276.014425951841</v>
+        <v>276.0144259518414</v>
       </c>
       <c r="N5" t="n">
-        <v>285.1410404318114</v>
+        <v>285.141040431812</v>
       </c>
       <c r="O5" t="n">
-        <v>255.7806379757912</v>
+        <v>255.7806379757916</v>
       </c>
       <c r="P5" t="n">
-        <v>183.4533610010069</v>
+        <v>183.4533610010073</v>
       </c>
       <c r="Q5" t="n">
-        <v>89.10649401243845</v>
+        <v>89.10649401243873</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>145.0274422600044</v>
+        <v>18.93640691959575</v>
       </c>
       <c r="K6" t="n">
-        <v>216.8564448964677</v>
+        <v>111.3096029710207</v>
       </c>
       <c r="L6" t="n">
-        <v>196.4599432639917</v>
+        <v>196.459943263992</v>
       </c>
       <c r="M6" t="n">
-        <v>248.8118794653997</v>
+        <v>248.8118794654001</v>
       </c>
       <c r="N6" t="n">
-        <v>269.9513763355779</v>
+        <v>291.511965865586</v>
       </c>
       <c r="O6" t="n">
-        <v>224.5085324904226</v>
+        <v>224.5085324904229</v>
       </c>
       <c r="P6" t="n">
-        <v>160.6595406047352</v>
+        <v>160.6595406047355</v>
       </c>
       <c r="Q6" t="n">
-        <v>56.97321748793411</v>
+        <v>267.0505052237834</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,25 +35094,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>128.0174317142345</v>
+        <v>128.0174317142346</v>
       </c>
       <c r="L7" t="n">
-        <v>219.9055454148607</v>
+        <v>219.9055454148609</v>
       </c>
       <c r="M7" t="n">
-        <v>242.3536283391679</v>
+        <v>242.3536283391681</v>
       </c>
       <c r="N7" t="n">
-        <v>242.0805122814819</v>
+        <v>242.0805122814821</v>
       </c>
       <c r="O7" t="n">
-        <v>207.4224586809994</v>
+        <v>207.4224586809996</v>
       </c>
       <c r="P7" t="n">
-        <v>153.7274818609593</v>
+        <v>153.7274818609594</v>
       </c>
       <c r="Q7" t="n">
-        <v>22.15508137491135</v>
+        <v>22.15508137491145</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35252,7 +35252,7 @@
         <v>189.0712562313262</v>
       </c>
       <c r="K9" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L9" t="n">
         <v>297.6803606378501</v>
@@ -35264,13 +35264,13 @@
         <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>335.424681996123</v>
+        <v>474.3640795072288</v>
       </c>
       <c r="P9" t="n">
-        <v>568.1422977634694</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q9" t="n">
-        <v>201.4225882146019</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>229.1600138937056</v>
+        <v>229.1600138937052</v>
       </c>
       <c r="K11" t="n">
-        <v>394.7024857525325</v>
+        <v>394.7024857525319</v>
       </c>
       <c r="L11" t="n">
-        <v>526.9378424844788</v>
+        <v>526.9378424844781</v>
       </c>
       <c r="M11" t="n">
-        <v>618.3092105681839</v>
+        <v>618.3092105681831</v>
       </c>
       <c r="N11" t="n">
-        <v>632.9745125214265</v>
+        <v>632.9745125214256</v>
       </c>
       <c r="O11" t="n">
-        <v>584.2299222739941</v>
+        <v>584.2299222739935</v>
       </c>
       <c r="P11" t="n">
-        <v>463.7772262067667</v>
+        <v>463.7772262067661</v>
       </c>
       <c r="Q11" t="n">
-        <v>299.6180424081477</v>
+        <v>299.6180424081473</v>
       </c>
       <c r="R11" t="n">
-        <v>88.01360235553096</v>
+        <v>88.01360235553068</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>117.4782081526472</v>
+        <v>117.4782081526469</v>
       </c>
       <c r="K12" t="n">
-        <v>279.7332367854793</v>
+        <v>279.7332367854789</v>
       </c>
       <c r="L12" t="n">
-        <v>422.926303694901</v>
+        <v>422.9263036949005</v>
       </c>
       <c r="M12" t="n">
-        <v>482.7695898299773</v>
+        <v>513.0874403601294</v>
       </c>
       <c r="N12" t="n">
-        <v>541.2215249507177</v>
+        <v>136.1980957999997</v>
       </c>
       <c r="O12" t="n">
-        <v>472.6677215480033</v>
+        <v>472.6677215480028</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>359.8291679240141</v>
       </c>
       <c r="Q12" t="n">
-        <v>190.1128388187327</v>
+        <v>190.1128388187324</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>14.87641069655342</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>59.91672319186287</v>
+        <v>59.91672319186273</v>
       </c>
       <c r="K13" t="n">
-        <v>229.60990180702</v>
+        <v>229.6099018070197</v>
       </c>
       <c r="L13" t="n">
-        <v>349.9089300703705</v>
+        <v>349.9089300703702</v>
       </c>
       <c r="M13" t="n">
-        <v>379.4239696388472</v>
+        <v>379.4239696388468</v>
       </c>
       <c r="N13" t="n">
-        <v>375.8916272323316</v>
+        <v>375.8916272323313</v>
       </c>
       <c r="O13" t="n">
-        <v>331.0186812946637</v>
+        <v>331.0186812946635</v>
       </c>
       <c r="P13" t="n">
-        <v>259.4854022142001</v>
+        <v>259.4854022141998</v>
       </c>
       <c r="Q13" t="n">
-        <v>95.37638356776326</v>
+        <v>95.37638356776309</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,31 +35641,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902404</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674329</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.937336923845</v>
+        <v>519.1933770937326</v>
       </c>
       <c r="O15" t="n">
-        <v>136.4812930471415</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789208</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
         <v>264.3325884096349</v>
@@ -35811,19 +35811,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,31 +35878,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902404</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641936</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="N18" t="n">
-        <v>633.937336923845</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>257.9506595121327</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
         <v>264.3325884096349</v>
@@ -36048,19 +36048,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36197,13 +36197,13 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>245.9177694853267</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36212,16 +36212,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0.7540807028592577</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36434,10 +36434,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
@@ -36446,10 +36446,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>191.358233988438</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
         <v>427.9021712071395</v>
@@ -36671,13 +36671,13 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>395.0475418999253</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36686,16 +36686,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>297.3936679588052</v>
       </c>
       <c r="O30" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>224.339029438562</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>37.00975247789211</v>
@@ -37148,13 +37148,13 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
@@ -37163,13 +37163,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>182.409330812055</v>
       </c>
       <c r="Q33" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37379,19 +37379,19 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>101.892590396165</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
@@ -37403,7 +37403,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>224.339029438562</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
         <v>37.00975247789211</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -37628,7 +37628,7 @@
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
@@ -37637,10 +37637,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>188.9220579561604</v>
+        <v>405.558608182438</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37868,19 +37868,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="O42" t="n">
-        <v>257.9506595121318</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38096,16 +38096,16 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>285.360777932</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
